--- a/Dados/Target_Workbook.xlsx
+++ b/Dados/Target_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af800df742d85502/Área de Trabalho/Automação NFTS/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="11_985998E503861325E190350CDFED3F8BA590ECD8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ACD6730-DB69-4425-8949-691D4373CD5E}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="11_985998E503861325E190350CDFED3F8BA590ECD8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9882D52-24D9-4F4A-928F-46D7BCEB2294}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados_Tomadora" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
-    <t>Agenda</t>
-  </si>
-  <si>
     <t>Numero_NF</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Esse serviço é ficticio. (Consultoria)</t>
+  </si>
+  <si>
+    <t>ID_pagamento</t>
   </si>
 </sst>
 </file>
@@ -169,7 +169,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -315,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,22 +354,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -380,6 +365,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -397,6 +394,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,7 +690,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -702,39 +703,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="A1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="13">
         <v>12345678</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -755,13 +756,11 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -780,68 +779,68 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="3">
         <v>146151</v>
       </c>
       <c r="B2" s="2">
         <v>256177</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="16">
         <v>45361</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="19">
+        <v>14</v>
+      </c>
+      <c r="E2" s="14">
         <v>1758.5</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="15">
         <v>255.25</v>
       </c>
       <c r="G2" s="3">
@@ -850,45 +849,45 @@
       <c r="H2" s="1">
         <v>17.010000000000002</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>16</v>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J2" s="2">
         <v>2</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="3">
         <v>146152</v>
       </c>
       <c r="B3" s="2">
         <v>256179</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="16">
         <v>45371</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="19">
+        <v>14</v>
+      </c>
+      <c r="E3" s="14">
         <v>3700.7</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="15">
         <v>200.25</v>
       </c>
       <c r="G3" s="3">
@@ -897,45 +896,45 @@
       <c r="H3" s="1">
         <v>17.02</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="3">
         <v>3.59</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="3">
         <v>146153</v>
       </c>
       <c r="B4" s="2">
         <v>256181</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="16">
         <v>45376</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="19">
+        <v>14</v>
+      </c>
+      <c r="E4" s="14">
         <v>10875.85</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="15">
         <v>755.25</v>
       </c>
       <c r="G4" s="3">
@@ -944,45 +943,45 @@
       <c r="H4" s="1">
         <v>17.03</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="3">
         <v>3.59</v>
       </c>
       <c r="J4" s="2">
         <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>39</v>
+      <c r="O4" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="3">
         <v>146154</v>
       </c>
       <c r="B5" s="2">
         <v>256183</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="16">
         <v>45377</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="19">
+        <v>14</v>
+      </c>
+      <c r="E5" s="14">
         <v>19050.57</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="15">
         <v>1855.25</v>
       </c>
       <c r="G5" s="3">
@@ -991,26 +990,26 @@
       <c r="H5" s="1">
         <v>17.04</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="3">
         <v>6.59</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
